--- a/fig_pages_viewed_example.xlsx
+++ b/fig_pages_viewed_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>image rotation</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>is_viewed</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +493,7 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +518,7 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +543,7 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +568,7 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +593,7 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +618,7 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +643,7 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +668,7 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +693,7 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -702,6 +716,709 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F2_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gonsalves_2020_ASQ_From Frace Time to Flex Time.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F2_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F2_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F5_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F5_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F3_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F2_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F2_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F3_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F2_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F6_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F6_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rauch &amp; Ansari_2022_OrgSci_Waging War from Remote Cubicles How Workers Cope with Technologies That Disrupt the Meaning and Morality of Their Work.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F1_Rauch &amp; Ansari_2022_OrgSci_Waging War from Remote Cubicles How Workers Cope with Technologies That Disrupt the Meaning and Morality of Their Work.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Frey_2022_AMJ_I Go Here but I Don't Necessarily Belong.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F1_Frey_2022_AMJ_I Go Here but I Don't Necessarily Belong.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Diaz-Moriana_2022_J Management Studies _ Untangling Goal Tensions in Family Firms  A Sensemaking Approach.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1_Diaz-Moriana_2022_J Management Studies _ Untangling Goal Tensions in Family Firms  A Sensemaking Approach.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F5_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F7_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F7_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E32" t="n">
+        <v>26</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F5_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F3_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sawyer &amp; Clair_ASQ_2022_Hope Cultures in Organizations - Tackling the Grand Challenge of Commercial Sex Exploitation.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F3_Sawyer &amp; Clair_ASQ_2022_Hope Cultures in Organizations - Tackling the Grand Challenge of Commercial Sex Exploitation.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Diaz-Moriana_2022_J Management Studies _ Untangling Goal Tensions in Family Firms  A Sensemaking Approach.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F2_Diaz-Moriana_2022_J Management Studies _ Untangling Goal Tensions in Family Firms  A Sensemaking Approach.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F4_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
         <v>0</v>
       </c>
     </row>
